--- a/수업내용/요구사항분석/요구사항/220105_A프로젝트_기능명세서_이규성 - 복사본.xlsx
+++ b/수업내용/요구사항분석/요구사항/220105_A프로젝트_기능명세서_이규성 - 복사본.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,34 +57,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>01월 9일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01월 12일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01월 14일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01월 10일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01월 17일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>01월 5일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>01월 9일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01월 12일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01월 14일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01월 10일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01월 17일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01월 5일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,71 +97,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>총 개발 소요일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 구현</t>
+    <t>2차 스프린트 개발 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OO 쇼핑몰 플랫폼 기능 명세서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 등록 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월별 회원가입 수 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 통계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대시보드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 리스트 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회 수 카운트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 상세 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생 수, 게시물 수 , 작성자 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05월 24일</t>
+  </si>
+  <si>
+    <t>05월 24일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05월 24일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05월 25일</t>
+  </si>
+  <si>
+    <t>05월 26일</t>
+  </si>
+  <si>
+    <t>05월 27일</t>
+  </si>
+  <si>
+    <t>05월 28일</t>
+  </si>
+  <si>
+    <t>05월 29일</t>
+  </si>
+  <si>
+    <t>05월 30일</t>
+  </si>
+  <si>
+    <t>05월 31일</t>
+  </si>
+  <si>
+    <t>board 테이블 컬럼 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>로그인 구현 부터 작업해야함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 스프린트 개발 예정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OO 쇼핑몰 플랫폼 기능 명세서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쇼핑몰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 상품 조회 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 상품 조회 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 포인트 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 공지 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쇼핑몰 관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMS 이벤트 문자 전송 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 회원 조회 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 등록 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월별 회원가입 수 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01월 7일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,7 +212,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +250,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -298,13 +353,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -323,6 +375,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -330,15 +388,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -621,13 +685,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -636,50 +700,54 @@
     <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="A1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="3" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -688,203 +756,253 @@
         <v>23</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="5">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>20</v>
+      <c r="F4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="5"/>
+      <c r="E5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="5"/>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="5"/>
+      <c r="E7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4">
         <v>3</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="5"/>
+      <c r="E8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="16" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>21</v>
+      <c r="E9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="B10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4">
         <v>3</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="6"/>
+      <c r="E10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="B11" s="11"/>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4">
         <v>3</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="5"/>
+      <c r="E11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="B12" s="11"/>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4">
         <v>3</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="5"/>
+      <c r="E12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="A13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1">
-        <f>SUM(D4:D12)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+    </row>
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:H12"/>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A13:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
